--- a/predictions полгода до/прогнозы_STL.xlsx
+++ b/predictions полгода до/прогнозы_STL.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21899670.72052336</v>
+        <v>23790766.30755125</v>
       </c>
       <c r="C2" t="n">
-        <v>24670770.76063692</v>
+        <v>21831893.8594167</v>
       </c>
       <c r="D2" t="n">
-        <v>22703836.9669314</v>
+        <v>18942212.64556008</v>
       </c>
       <c r="E2" t="n">
-        <v>19741471.53474856</v>
+        <v>22436760.75415223</v>
       </c>
       <c r="F2" t="n">
-        <v>23147101.40661645</v>
+        <v>22433323.40477853</v>
       </c>
       <c r="G2" t="n">
-        <v>23051515.57020198</v>
+        <v>18243564.70187501</v>
       </c>
       <c r="H2" t="n">
-        <v>18769338.56149594</v>
+        <v>23094693.15985347</v>
       </c>
       <c r="I2" t="n">
-        <v>23528321.76775868</v>
+        <v>23018949.08942805</v>
       </c>
       <c r="J2" t="n">
-        <v>23360901.94155059</v>
+        <v>20452528.40184692</v>
       </c>
       <c r="K2" t="n">
-        <v>20703729.18840726</v>
+        <v>16843354.98823711</v>
       </c>
       <c r="L2" t="n">
-        <v>17006706.0443777</v>
+        <v>19458036.95574768</v>
       </c>
       <c r="M2" t="n">
-        <v>19542752.25776796</v>
+        <v>19898614.72117059</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7955922.710760277</v>
+        <v>8186645.789943619</v>
       </c>
       <c r="C3" t="n">
-        <v>7624157.546578095</v>
+        <v>8681663.760786861</v>
       </c>
       <c r="D3" t="n">
-        <v>8052444.953642922</v>
+        <v>9075539.528297499</v>
       </c>
       <c r="E3" t="n">
-        <v>8461035.954958398</v>
+        <v>9192124.933957588</v>
       </c>
       <c r="F3" t="n">
-        <v>8585421.19550327</v>
+        <v>11419693.96668291</v>
       </c>
       <c r="G3" t="n">
-        <v>10816254.81283073</v>
+        <v>8127718.85406789</v>
       </c>
       <c r="H3" t="n">
-        <v>7524793.021576228</v>
+        <v>8096352.660894727</v>
       </c>
       <c r="I3" t="n">
-        <v>7491757.644448691</v>
+        <v>14514835.3900541</v>
       </c>
       <c r="J3" t="n">
-        <v>13906408.18214476</v>
+        <v>8872375.483780582</v>
       </c>
       <c r="K3" t="n">
-        <v>8258028.436492384</v>
+        <v>11327436.24864482</v>
       </c>
       <c r="L3" t="n">
-        <v>10704385.84173763</v>
+        <v>8753367.627989313</v>
       </c>
       <c r="M3" t="n">
-        <v>8114290.442083037</v>
+        <v>7135558.750093317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2804426.424325362</v>
+        <v>4769889.078291896</v>
       </c>
       <c r="C4" t="n">
-        <v>2161192.951420314</v>
+        <v>5437556.220869621</v>
       </c>
       <c r="D4" t="n">
-        <v>2811734.886517125</v>
+        <v>5633276.851778511</v>
       </c>
       <c r="E4" t="n">
-        <v>3134357.726454762</v>
+        <v>5615530.775235233</v>
       </c>
       <c r="F4" t="n">
-        <v>3267428.068760631</v>
+        <v>6295813.718453766</v>
       </c>
       <c r="G4" t="n">
-        <v>4098368.939859556</v>
+        <v>5520232.894873929</v>
       </c>
       <c r="H4" t="n">
-        <v>3472805.377679212</v>
+        <v>5360421.008615009</v>
       </c>
       <c r="I4" t="n">
-        <v>3465442.626197926</v>
+        <v>4237825.118611351</v>
       </c>
       <c r="J4" t="n">
-        <v>2500483.796324623</v>
+        <v>4473752.096199067</v>
       </c>
       <c r="K4" t="n">
-        <v>2843981.068937744</v>
+        <v>4888624.668199898</v>
       </c>
       <c r="L4" t="n">
-        <v>2952151.678017491</v>
+        <v>7297906.455455245</v>
       </c>
       <c r="M4" t="n">
-        <v>4392764.368036032</v>
+        <v>9885361.204941856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>593207.048913297</v>
+        <v>19290042.25749433</v>
       </c>
       <c r="C5" t="n">
-        <v>583593.8975849153</v>
+        <v>19628185.47837469</v>
       </c>
       <c r="D5" t="n">
-        <v>555037.7108000412</v>
+        <v>19386959.41874283</v>
       </c>
       <c r="E5" t="n">
-        <v>520379.1743799349</v>
+        <v>21506054.60096363</v>
       </c>
       <c r="F5" t="n">
-        <v>485069.8502296972</v>
+        <v>40016226.99811548</v>
       </c>
       <c r="G5" t="n">
-        <v>449424.6671166526</v>
+        <v>10719265.59213894</v>
       </c>
       <c r="H5" t="n">
-        <v>412732.5928699039</v>
+        <v>21416002.82139494</v>
       </c>
       <c r="I5" t="n">
-        <v>374301.5860475283</v>
+        <v>18493208.42153435</v>
       </c>
       <c r="J5" t="n">
-        <v>333760.2803301483</v>
+        <v>22092232.24311338</v>
       </c>
       <c r="K5" t="n">
-        <v>347679.2989626412</v>
+        <v>24603848.56814407</v>
       </c>
       <c r="L5" t="n">
-        <v>780476.395208276</v>
+        <v>24058074.6218549</v>
       </c>
       <c r="M5" t="n">
-        <v>1880361.575154957</v>
+        <v>21401834.01824601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7422611.48640254</v>
+        <v>-141602.8200046603</v>
       </c>
       <c r="C6" t="n">
-        <v>6597436.17182724</v>
+        <v>1546938.984558292</v>
       </c>
       <c r="D6" t="n">
-        <v>7300749.736615424</v>
+        <v>-2103354.544419791</v>
       </c>
       <c r="E6" t="n">
-        <v>8345943.115537558</v>
+        <v>2966906.405914069</v>
       </c>
       <c r="F6" t="n">
-        <v>8948569.150161382</v>
+        <v>-629929.9575192676</v>
       </c>
       <c r="G6" t="n">
-        <v>22395045.81011133</v>
+        <v>-935423.6010046959</v>
       </c>
       <c r="H6" t="n">
-        <v>4130225.988654464</v>
+        <v>1313705.131966275</v>
       </c>
       <c r="I6" t="n">
-        <v>9588880.210524432</v>
+        <v>1648892.97209598</v>
       </c>
       <c r="J6" t="n">
-        <v>6371132.91483724</v>
+        <v>-497937.2427709334</v>
       </c>
       <c r="K6" t="n">
-        <v>7419515.91455231</v>
+        <v>8388916.267012043</v>
       </c>
       <c r="L6" t="n">
-        <v>10605783.60493491</v>
+        <v>-718382.757295759</v>
       </c>
       <c r="M6" t="n">
-        <v>9591659.564165855</v>
+        <v>1419926.892390955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1893788.336268349</v>
+        <v>7452178.24342893</v>
       </c>
       <c r="C7" t="n">
-        <v>2532170.91773928</v>
+        <v>6969091.447688196</v>
       </c>
       <c r="D7" t="n">
-        <v>2704343.97698791</v>
+        <v>7722686.930685577</v>
       </c>
       <c r="E7" t="n">
-        <v>2396977.020108058</v>
+        <v>5841953.502278805</v>
       </c>
       <c r="F7" t="n">
-        <v>2835007.120760386</v>
+        <v>7133651.346136512</v>
       </c>
       <c r="G7" t="n">
-        <v>5014280.761860136</v>
+        <v>5676350.367206657</v>
       </c>
       <c r="H7" t="n">
-        <v>728397.8507656562</v>
+        <v>8156542.768173709</v>
       </c>
       <c r="I7" t="n">
-        <v>2960044.105166466</v>
+        <v>9514799.1482263</v>
       </c>
       <c r="J7" t="n">
-        <v>2581762.536518828</v>
+        <v>8541014.115488589</v>
       </c>
       <c r="K7" t="n">
-        <v>2955029.887684533</v>
+        <v>11569213.7639031</v>
       </c>
       <c r="L7" t="n">
-        <v>1681593.460229432</v>
+        <v>8111042.698716787</v>
       </c>
       <c r="M7" t="n">
-        <v>4282777.561546465</v>
+        <v>8540376.800533369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1960511.839053133</v>
+        <v>11566976.68048887</v>
       </c>
       <c r="C8" t="n">
-        <v>1600061.301889842</v>
+        <v>13369534.031236</v>
       </c>
       <c r="D8" t="n">
-        <v>1196821.372677396</v>
+        <v>13944303.15057316</v>
       </c>
       <c r="E8" t="n">
-        <v>1581654.37406448</v>
+        <v>14285661.76884747</v>
       </c>
       <c r="F8" t="n">
-        <v>2041504.226573671</v>
+        <v>21406533.50257186</v>
       </c>
       <c r="G8" t="n">
-        <v>1472358.48315708</v>
+        <v>9627249.337169675</v>
       </c>
       <c r="H8" t="n">
-        <v>920861.014167032</v>
+        <v>19200283.3092805</v>
       </c>
       <c r="I8" t="n">
-        <v>1276428.905018291</v>
+        <v>19746697.65709247</v>
       </c>
       <c r="J8" t="n">
-        <v>854452.1244663467</v>
+        <v>20261742.11026109</v>
       </c>
       <c r="K8" t="n">
-        <v>1288405.197184639</v>
+        <v>19938516.93057083</v>
       </c>
       <c r="L8" t="n">
-        <v>1389701.225391068</v>
+        <v>18522493.26453727</v>
       </c>
       <c r="M8" t="n">
-        <v>1582623.398832229</v>
+        <v>18107613.88627989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2111737.35391729</v>
+        <v>24933579.18826784</v>
       </c>
       <c r="C9" t="n">
-        <v>2051841.852485627</v>
+        <v>24343658.28531545</v>
       </c>
       <c r="D9" t="n">
-        <v>1933215.477747516</v>
+        <v>23966700.62706525</v>
       </c>
       <c r="E9" t="n">
-        <v>1810127.415340092</v>
+        <v>24760094.5795847</v>
       </c>
       <c r="F9" t="n">
-        <v>1687721.645903303</v>
+        <v>36933431.87557407</v>
       </c>
       <c r="G9" t="n">
-        <v>1563490.806517439</v>
+        <v>20089699.371443</v>
       </c>
       <c r="H9" t="n">
-        <v>1435136.469330523</v>
+        <v>18978153.83447997</v>
       </c>
       <c r="I9" t="n">
-        <v>1977109.437600796</v>
+        <v>25206935.6627794</v>
       </c>
       <c r="J9" t="n">
-        <v>2706496.43147034</v>
+        <v>23419903.94437135</v>
       </c>
       <c r="K9" t="n">
-        <v>2944160.012087826</v>
+        <v>25601568.01683251</v>
       </c>
       <c r="L9" t="n">
-        <v>3902034.303729358</v>
+        <v>26854466.43298269</v>
       </c>
       <c r="M9" t="n">
-        <v>2576476.818285875</v>
+        <v>27201659.08045747</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2985329.627145572</v>
+        <v>10688746.55718227</v>
       </c>
       <c r="C10" t="n">
-        <v>4409613.324229882</v>
+        <v>10473030.28319589</v>
       </c>
       <c r="D10" t="n">
-        <v>4476794.408027311</v>
+        <v>10431405.56374625</v>
       </c>
       <c r="E10" t="n">
-        <v>3152185.826062656</v>
+        <v>9730637.438629823</v>
       </c>
       <c r="F10" t="n">
-        <v>4038922.907782124</v>
+        <v>10232850.35457295</v>
       </c>
       <c r="G10" t="n">
-        <v>7640676.737207588</v>
+        <v>7471177.588126277</v>
       </c>
       <c r="H10" t="n">
-        <v>1826990.48520204</v>
+        <v>7174550.688408442</v>
       </c>
       <c r="I10" t="n">
-        <v>3902548.214388097</v>
+        <v>9468491.129834795</v>
       </c>
       <c r="J10" t="n">
-        <v>4415351.038490965</v>
+        <v>12501796.91796778</v>
       </c>
       <c r="K10" t="n">
-        <v>6124898.983540478</v>
+        <v>14700125.07012564</v>
       </c>
       <c r="L10" t="n">
-        <v>5785567.675665096</v>
+        <v>14217824.58146095</v>
       </c>
       <c r="M10" t="n">
-        <v>4711820.97536336</v>
+        <v>20525447.45603306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3053392.378405844</v>
+        <v>15851339.45279841</v>
       </c>
       <c r="C11" t="n">
-        <v>1737018.670761179</v>
+        <v>17420037.96538936</v>
       </c>
       <c r="D11" t="n">
-        <v>2993680.588369732</v>
+        <v>19431179.45124051</v>
       </c>
       <c r="E11" t="n">
-        <v>-359432.1615807521</v>
+        <v>19159825.75724071</v>
       </c>
       <c r="F11" t="n">
-        <v>4099819.876134953</v>
+        <v>15711942.04772097</v>
       </c>
       <c r="G11" t="n">
-        <v>531905.3700454806</v>
+        <v>14264901.44879762</v>
       </c>
       <c r="H11" t="n">
-        <v>320535.4890446246</v>
+        <v>15344356.29393749</v>
       </c>
       <c r="I11" t="n">
-        <v>2189863.497649898</v>
+        <v>14484539.96600454</v>
       </c>
       <c r="J11" t="n">
-        <v>1870698.299979143</v>
+        <v>14752021.03802406</v>
       </c>
       <c r="K11" t="n">
-        <v>285873.2427593681</v>
+        <v>13809992.60029449</v>
       </c>
       <c r="L11" t="n">
-        <v>9192792.120290788</v>
+        <v>16642291.12076463</v>
       </c>
       <c r="M11" t="n">
-        <v>104452.9877695462</v>
+        <v>15522979.46696742</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-152869.5012000877</v>
+        <v>40191210.67918278</v>
       </c>
       <c r="C12" t="n">
-        <v>-915379.1299572072</v>
+        <v>41577696.49212905</v>
       </c>
       <c r="D12" t="n">
-        <v>-486125.7749003991</v>
+        <v>48223769.19835288</v>
       </c>
       <c r="E12" t="n">
-        <v>-829177.3634253687</v>
+        <v>45520754.69527649</v>
       </c>
       <c r="F12" t="n">
-        <v>-261907.6996579852</v>
+        <v>40435794.65499163</v>
       </c>
       <c r="G12" t="n">
-        <v>-335433.5056585789</v>
+        <v>37636341.23969228</v>
       </c>
       <c r="H12" t="n">
-        <v>-474358.2884936049</v>
+        <v>40049240.77380203</v>
       </c>
       <c r="I12" t="n">
-        <v>-139773.257793787</v>
+        <v>41851915.71129689</v>
       </c>
       <c r="J12" t="n">
-        <v>469205.1138060052</v>
+        <v>46094169.16172338</v>
       </c>
       <c r="K12" t="n">
-        <v>-137964.8282488694</v>
+        <v>42046889.84874782</v>
       </c>
       <c r="L12" t="n">
-        <v>-202210.0053657267</v>
+        <v>43667640.2759839</v>
       </c>
       <c r="M12" t="n">
-        <v>-267592.8237211875</v>
+        <v>42722771.50379363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1592940.320443546</v>
+        <v>46000257.98639157</v>
       </c>
       <c r="C13" t="n">
-        <v>1412257.812505875</v>
+        <v>47962551.73373777</v>
       </c>
       <c r="D13" t="n">
-        <v>1223230.078417532</v>
+        <v>45150695.59748788</v>
       </c>
       <c r="E13" t="n">
-        <v>1643176.563772446</v>
+        <v>42351358.84371543</v>
       </c>
       <c r="F13" t="n">
-        <v>1125125.349112973</v>
+        <v>40586292.1999354</v>
       </c>
       <c r="G13" t="n">
-        <v>1279211.105498915</v>
+        <v>37453771.02703732</v>
       </c>
       <c r="H13" t="n">
-        <v>1042385.981049764</v>
+        <v>38487048.28260086</v>
       </c>
       <c r="I13" t="n">
-        <v>978865.9415821288</v>
+        <v>39867592.6669242</v>
       </c>
       <c r="J13" t="n">
-        <v>1542134.220848017</v>
+        <v>41031574.37844105</v>
       </c>
       <c r="K13" t="n">
-        <v>1143451.09986765</v>
+        <v>39195160.42559044</v>
       </c>
       <c r="L13" t="n">
-        <v>1901703.668381201</v>
+        <v>41077488.93932047</v>
       </c>
       <c r="M13" t="n">
-        <v>1127931.412179542</v>
+        <v>41937489.96520577</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-871381.2720203844</v>
+        <v>703901.9515467724</v>
       </c>
       <c r="C14" t="n">
-        <v>-1066623.035239529</v>
+        <v>686199.222492337</v>
       </c>
       <c r="D14" t="n">
-        <v>-1291062.85464253</v>
+        <v>649874.1862227384</v>
       </c>
       <c r="E14" t="n">
-        <v>-287261.030644597</v>
+        <v>609160.6164518914</v>
       </c>
       <c r="F14" t="n">
-        <v>-1299760.404923845</v>
+        <v>567936.4508859036</v>
       </c>
       <c r="G14" t="n">
-        <v>-915367.193063276</v>
+        <v>526115.9385458808</v>
       </c>
       <c r="H14" t="n">
-        <v>-1133868.467960749</v>
+        <v>651124.2868923851</v>
       </c>
       <c r="I14" t="n">
-        <v>-389023.0824458576</v>
+        <v>708557.1851912781</v>
       </c>
       <c r="J14" t="n">
-        <v>173257.5130213986</v>
+        <v>641420.3808941157</v>
       </c>
       <c r="K14" t="n">
-        <v>130297.4571069422</v>
+        <v>526949.9356231934</v>
       </c>
       <c r="L14" t="n">
-        <v>-413007.3968694892</v>
+        <v>928454.369258868</v>
       </c>
       <c r="M14" t="n">
-        <v>-415862.2480006994</v>
+        <v>1685186.866479351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1025413.658241268</v>
+        <v>5314338.368086373</v>
       </c>
       <c r="C15" t="n">
-        <v>719380.2066689304</v>
+        <v>4661818.490493233</v>
       </c>
       <c r="D15" t="n">
-        <v>686751.7543108874</v>
+        <v>4174219.163674736</v>
       </c>
       <c r="E15" t="n">
-        <v>712439.6389662042</v>
+        <v>5441075.402148937</v>
       </c>
       <c r="F15" t="n">
-        <v>636790.345426359</v>
+        <v>4730386.620342702</v>
       </c>
       <c r="G15" t="n">
-        <v>1199793.468523426</v>
+        <v>3996363.91894201</v>
       </c>
       <c r="H15" t="n">
-        <v>1001848.223234929</v>
+        <v>3259437.729893602</v>
       </c>
       <c r="I15" t="n">
-        <v>744673.166227703</v>
+        <v>5512765.901836781</v>
       </c>
       <c r="J15" t="n">
-        <v>733815.5140438073</v>
+        <v>5249836.06441013</v>
       </c>
       <c r="K15" t="n">
-        <v>831746.2963205838</v>
+        <v>3429204.211052871</v>
       </c>
       <c r="L15" t="n">
-        <v>636339.7234172833</v>
+        <v>4250488.466651892</v>
       </c>
       <c r="M15" t="n">
-        <v>861676.462786573</v>
+        <v>2624460.360276537</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>955650.1381294564</v>
+        <v>8730974.833319865</v>
       </c>
       <c r="C16" t="n">
-        <v>819633.6340498459</v>
+        <v>14586560.23968926</v>
       </c>
       <c r="D16" t="n">
-        <v>776152.2293429913</v>
+        <v>12877877.65669667</v>
       </c>
       <c r="E16" t="n">
-        <v>769408.6099818124</v>
+        <v>16066089.66970353</v>
       </c>
       <c r="F16" t="n">
-        <v>646275.6927878292</v>
+        <v>13951350.91429383</v>
       </c>
       <c r="G16" t="n">
-        <v>1204278.826286267</v>
+        <v>14441668.1626483</v>
       </c>
       <c r="H16" t="n">
-        <v>669632.7719666854</v>
+        <v>9580699.467197914</v>
       </c>
       <c r="I16" t="n">
-        <v>1040054.763589059</v>
+        <v>9558249.774962887</v>
       </c>
       <c r="J16" t="n">
-        <v>920766.8819032387</v>
+        <v>12922466.19557129</v>
       </c>
       <c r="K16" t="n">
-        <v>924513.5105870863</v>
+        <v>11141320.24573072</v>
       </c>
       <c r="L16" t="n">
-        <v>1130485.608330626</v>
+        <v>10775834.54247586</v>
       </c>
       <c r="M16" t="n">
-        <v>951843.9131009956</v>
+        <v>11730575.15066544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5313978.308119775</v>
+        <v>4804014.425591066</v>
       </c>
       <c r="C17" t="n">
-        <v>5281603.414019615</v>
+        <v>5692955.441666277</v>
       </c>
       <c r="D17" t="n">
-        <v>5199501.405485355</v>
+        <v>5952443.786849664</v>
       </c>
       <c r="E17" t="n">
-        <v>4510588.05072409</v>
+        <v>6341419.492146948</v>
       </c>
       <c r="F17" t="n">
-        <v>4357390.04779261</v>
+        <v>5079508.570210871</v>
       </c>
       <c r="G17" t="n">
-        <v>3981957.513121074</v>
+        <v>3994168.373254679</v>
       </c>
       <c r="H17" t="n">
-        <v>3690530.003942343</v>
+        <v>5363510.386278889</v>
       </c>
       <c r="I17" t="n">
-        <v>5361807.406249624</v>
+        <v>4677987.687265641</v>
       </c>
       <c r="J17" t="n">
-        <v>5717633.126278175</v>
+        <v>5534708.206534916</v>
       </c>
       <c r="K17" t="n">
-        <v>5073548.4834078</v>
+        <v>4731945.658776093</v>
       </c>
       <c r="L17" t="n">
-        <v>7861180.148086851</v>
+        <v>4401104.632686723</v>
       </c>
       <c r="M17" t="n">
-        <v>5109112.17597778</v>
+        <v>5075631.05735317</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1236997.398491814</v>
+        <v>3048098.263119893</v>
       </c>
       <c r="C18" t="n">
-        <v>465833.2562419162</v>
+        <v>3818894.164543719</v>
       </c>
       <c r="D18" t="n">
-        <v>1492209.885294962</v>
+        <v>3059153.308632516</v>
       </c>
       <c r="E18" t="n">
-        <v>1077562.618910152</v>
+        <v>2846074.868318923</v>
       </c>
       <c r="F18" t="n">
-        <v>1179133.504043962</v>
+        <v>2829565.815299272</v>
       </c>
       <c r="G18" t="n">
-        <v>4946704.941350185</v>
+        <v>2282494.218025318</v>
       </c>
       <c r="H18" t="n">
-        <v>271507.9352533342</v>
+        <v>3105283.584389292</v>
       </c>
       <c r="I18" t="n">
-        <v>1351481.826064597</v>
+        <v>2598293.012911288</v>
       </c>
       <c r="J18" t="n">
-        <v>1409050.980283959</v>
+        <v>3454209.675693612</v>
       </c>
       <c r="K18" t="n">
-        <v>1279714.275942416</v>
+        <v>4509330.928198723</v>
       </c>
       <c r="L18" t="n">
-        <v>777671.3352419154</v>
+        <v>2481177.087409095</v>
       </c>
       <c r="M18" t="n">
-        <v>968416.4270813263</v>
+        <v>3331408.090025125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-67908.39484985116</v>
+        <v>6715852.95195826</v>
       </c>
       <c r="C19" t="n">
-        <v>-139450.8305297708</v>
+        <v>3600170.455515944</v>
       </c>
       <c r="D19" t="n">
-        <v>-60819.26632793528</v>
+        <v>5723643.257002409</v>
       </c>
       <c r="E19" t="n">
-        <v>-131973.999577984</v>
+        <v>3993218.96410132</v>
       </c>
       <c r="F19" t="n">
-        <v>-107575.5870407839</v>
+        <v>5391910.95772706</v>
       </c>
       <c r="G19" t="n">
-        <v>-16906.45225435837</v>
+        <v>3522054.772646015</v>
       </c>
       <c r="H19" t="n">
-        <v>-97921.22120883422</v>
+        <v>5132978.707960202</v>
       </c>
       <c r="I19" t="n">
-        <v>-45255.12341628878</v>
+        <v>6895144.084814096</v>
       </c>
       <c r="J19" t="n">
-        <v>68280.3918385507</v>
+        <v>4186683.892959693</v>
       </c>
       <c r="K19" t="n">
-        <v>-53280.46153793664</v>
+        <v>3587236.171129224</v>
       </c>
       <c r="L19" t="n">
-        <v>-40.71018844284117</v>
+        <v>3010960.074934095</v>
       </c>
       <c r="M19" t="n">
-        <v>-43013.5920259678</v>
+        <v>5467905.071789037</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1879620.092803168</v>
+        <v>1748394.851659264</v>
       </c>
       <c r="C20" t="n">
-        <v>2150940.602158475</v>
+        <v>2747466.267351558</v>
       </c>
       <c r="D20" t="n">
-        <v>1707110.930168405</v>
+        <v>3076593.87184072</v>
       </c>
       <c r="E20" t="n">
-        <v>2407825.054224217</v>
+        <v>2782772.305660774</v>
       </c>
       <c r="F20" t="n">
-        <v>2012722.360775237</v>
+        <v>1399625.080395748</v>
       </c>
       <c r="G20" t="n">
-        <v>1973633.386303689</v>
+        <v>2302992.568947315</v>
       </c>
       <c r="H20" t="n">
-        <v>991159.3673900405</v>
+        <v>3818456.302276172</v>
       </c>
       <c r="I20" t="n">
-        <v>3110940.814624909</v>
+        <v>4518055.705089198</v>
       </c>
       <c r="J20" t="n">
-        <v>1890994.519282938</v>
+        <v>1263572.07633144</v>
       </c>
       <c r="K20" t="n">
-        <v>2075737.147509081</v>
+        <v>2097156.966496069</v>
       </c>
       <c r="L20" t="n">
-        <v>2384062.577249955</v>
+        <v>2635064.842295078</v>
       </c>
       <c r="M20" t="n">
-        <v>2598522.104657418</v>
+        <v>1819993.469956118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1667329.528124357</v>
+        <v>3641803.702964108</v>
       </c>
       <c r="C21" t="n">
-        <v>1176119.403500263</v>
+        <v>4091505.31902014</v>
       </c>
       <c r="D21" t="n">
-        <v>1023300.660101696</v>
+        <v>4863790.109935399</v>
       </c>
       <c r="E21" t="n">
-        <v>1860622.217794638</v>
+        <v>4861228.257428097</v>
       </c>
       <c r="F21" t="n">
-        <v>1269297.229952554</v>
+        <v>4662289.155142674</v>
       </c>
       <c r="G21" t="n">
-        <v>1037251.735819359</v>
+        <v>4152673.65145989</v>
       </c>
       <c r="H21" t="n">
-        <v>844904.6568676991</v>
+        <v>3340717.9663609</v>
       </c>
       <c r="I21" t="n">
-        <v>1982987.114575154</v>
+        <v>4087344.611855811</v>
       </c>
       <c r="J21" t="n">
-        <v>1165129.565798688</v>
+        <v>4661617.358081187</v>
       </c>
       <c r="K21" t="n">
-        <v>1880457.17767606</v>
+        <v>4098049.157869368</v>
       </c>
       <c r="L21" t="n">
-        <v>2581925.201861588</v>
+        <v>4782603.502760875</v>
       </c>
       <c r="M21" t="n">
-        <v>1150231.012056133</v>
+        <v>4244412.77433066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-2326097.680384114</v>
+        <v>9861228.095027085</v>
       </c>
       <c r="C22" t="n">
-        <v>-2492116.97254252</v>
+        <v>12673445.72250778</v>
       </c>
       <c r="D22" t="n">
-        <v>-2416725.616446833</v>
+        <v>12843925.80269713</v>
       </c>
       <c r="E22" t="n">
-        <v>-2199389.236128811</v>
+        <v>12748205.55205948</v>
       </c>
       <c r="F22" t="n">
-        <v>-1127369.852607415</v>
+        <v>12522116.77051402</v>
       </c>
       <c r="G22" t="n">
-        <v>-325061.9243578691</v>
+        <v>9893097.446284175</v>
       </c>
       <c r="H22" t="n">
-        <v>-381440.2675361231</v>
+        <v>8300562.72783566</v>
       </c>
       <c r="I22" t="n">
-        <v>-958466.331358012</v>
+        <v>10547345.12736747</v>
       </c>
       <c r="J22" t="n">
-        <v>12476.8723177223</v>
+        <v>12743515.37273011</v>
       </c>
       <c r="K22" t="n">
-        <v>-101567.323417648</v>
+        <v>10972943.23454132</v>
       </c>
       <c r="L22" t="n">
-        <v>-436740.0008062674</v>
+        <v>14271965.32480037</v>
       </c>
       <c r="M22" t="n">
-        <v>-247413.4824462757</v>
+        <v>11286145.3466863</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-210263.3866968004</v>
+        <v>9281572.719723416</v>
       </c>
       <c r="C23" t="n">
-        <v>-199622.3451743417</v>
+        <v>7117050.390859817</v>
       </c>
       <c r="D23" t="n">
-        <v>-192640.6737575168</v>
+        <v>7661004.569955904</v>
       </c>
       <c r="E23" t="n">
-        <v>-184811.2149601514</v>
+        <v>7661974.277767431</v>
       </c>
       <c r="F23" t="n">
-        <v>-169561.0165574494</v>
+        <v>6902227.754185541</v>
       </c>
       <c r="G23" t="n">
-        <v>181486.6095906836</v>
+        <v>2853706.449589903</v>
       </c>
       <c r="H23" t="n">
-        <v>-159155.5376145617</v>
+        <v>8811692.494262654</v>
       </c>
       <c r="I23" t="n">
-        <v>42085.33673017423</v>
+        <v>8202623.379757453</v>
       </c>
       <c r="J23" t="n">
-        <v>-7542.692967620867</v>
+        <v>8976688.416573424</v>
       </c>
       <c r="K23" t="n">
-        <v>-98292.72019882899</v>
+        <v>8722881.126934465</v>
       </c>
       <c r="L23" t="n">
-        <v>-29483.08653691421</v>
+        <v>8336091.838678879</v>
       </c>
       <c r="M23" t="n">
-        <v>-89012.59914509102</v>
+        <v>8265350.730810009</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10087080.29762596</v>
+        <v>8604099.716113519</v>
       </c>
       <c r="C24" t="n">
-        <v>7331859.287549973</v>
+        <v>9415093.605901182</v>
       </c>
       <c r="D24" t="n">
-        <v>8791964.613898767</v>
+        <v>9383782.182494758</v>
       </c>
       <c r="E24" t="n">
-        <v>7033496.97317069</v>
+        <v>12732950.89627582</v>
       </c>
       <c r="F24" t="n">
-        <v>6947578.429027835</v>
+        <v>14029676.10336081</v>
       </c>
       <c r="G24" t="n">
-        <v>10399247.43343936</v>
+        <v>7448112.457456026</v>
       </c>
       <c r="H24" t="n">
-        <v>5651046.227050342</v>
+        <v>9947952.130536571</v>
       </c>
       <c r="I24" t="n">
-        <v>9397938.841627903</v>
+        <v>11518287.348537</v>
       </c>
       <c r="J24" t="n">
-        <v>11677643.73270802</v>
+        <v>12031923.88227045</v>
       </c>
       <c r="K24" t="n">
-        <v>11857164.44020128</v>
+        <v>8431511.693703985</v>
       </c>
       <c r="L24" t="n">
-        <v>10869228.56293455</v>
+        <v>9654457.6193603</v>
       </c>
       <c r="M24" t="n">
-        <v>11764881.59279227</v>
+        <v>10301372.6920157</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2672521.093852208</v>
+        <v>4167737.274346047</v>
       </c>
       <c r="C25" t="n">
-        <v>2688519.464757345</v>
+        <v>4541336.763810588</v>
       </c>
       <c r="D25" t="n">
-        <v>2171799.403633472</v>
+        <v>5119469.28783108</v>
       </c>
       <c r="E25" t="n">
-        <v>3323805.594275857</v>
+        <v>5349251.3317396</v>
       </c>
       <c r="F25" t="n">
-        <v>3310302.160785865</v>
+        <v>7481420.266281177</v>
       </c>
       <c r="G25" t="n">
-        <v>2380595.078321545</v>
+        <v>3310163.639159773</v>
       </c>
       <c r="H25" t="n">
-        <v>1663878.312922241</v>
+        <v>4920347.41870611</v>
       </c>
       <c r="I25" t="n">
-        <v>3608233.448010745</v>
+        <v>5237821.082551305</v>
       </c>
       <c r="J25" t="n">
-        <v>2776940.182529891</v>
+        <v>5761131.868894773</v>
       </c>
       <c r="K25" t="n">
-        <v>2819868.388694887</v>
+        <v>4496464.352157642</v>
       </c>
       <c r="L25" t="n">
-        <v>3209077.478720258</v>
+        <v>4758729.123561129</v>
       </c>
       <c r="M25" t="n">
-        <v>1840340.978028831</v>
+        <v>4874459.830067654</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9659166.980329376</v>
+        <v>12603702.31657242</v>
       </c>
       <c r="C26" t="n">
-        <v>10041369.2203881</v>
+        <v>13496337.92535363</v>
       </c>
       <c r="D26" t="n">
-        <v>8968272.574238783</v>
+        <v>12764674.002256</v>
       </c>
       <c r="E26" t="n">
-        <v>8831998.702502152</v>
+        <v>11691486.1636791</v>
       </c>
       <c r="F26" t="n">
-        <v>7895261.193952475</v>
+        <v>13346463.97360288</v>
       </c>
       <c r="G26" t="n">
-        <v>11416721.9625524</v>
+        <v>10427557.36559066</v>
       </c>
       <c r="H26" t="n">
-        <v>8270130.839301791</v>
+        <v>14178153.24078339</v>
       </c>
       <c r="I26" t="n">
-        <v>8433119.288862582</v>
+        <v>13337164.91681481</v>
       </c>
       <c r="J26" t="n">
-        <v>10842705.62801947</v>
+        <v>13382291.1780065</v>
       </c>
       <c r="K26" t="n">
-        <v>11840325.09363943</v>
+        <v>15667920.87069215</v>
       </c>
       <c r="L26" t="n">
-        <v>12265686.44291629</v>
+        <v>12594107.37125091</v>
       </c>
       <c r="M26" t="n">
-        <v>12695312.16697701</v>
+        <v>9802744.208002571</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11444331.50318648</v>
+        <v>5574675.029748905</v>
       </c>
       <c r="C27" t="n">
-        <v>12220004.58740796</v>
+        <v>6162917.387302932</v>
       </c>
       <c r="D27" t="n">
-        <v>12752467.78418891</v>
+        <v>5817556.776627353</v>
       </c>
       <c r="E27" t="n">
-        <v>12550724.40800143</v>
+        <v>5749776.457337075</v>
       </c>
       <c r="F27" t="n">
-        <v>14474487.85565945</v>
+        <v>8058877.540833406</v>
       </c>
       <c r="G27" t="n">
-        <v>23246015.19013627</v>
+        <v>5413258.403792577</v>
       </c>
       <c r="H27" t="n">
-        <v>9680333.44360885</v>
+        <v>6786433.232944481</v>
       </c>
       <c r="I27" t="n">
-        <v>8497258.310582221</v>
+        <v>7643415.829499308</v>
       </c>
       <c r="J27" t="n">
-        <v>12617002.23714285</v>
+        <v>6102347.536250406</v>
       </c>
       <c r="K27" t="n">
-        <v>9812640.346439097</v>
+        <v>6132877.415484721</v>
       </c>
       <c r="L27" t="n">
-        <v>12366043.09436229</v>
+        <v>4498329.708237112</v>
       </c>
       <c r="M27" t="n">
-        <v>13718680.32532452</v>
+        <v>4982699.341560826</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7617146.464788101</v>
+        <v>10802565.51335945</v>
       </c>
       <c r="C28" t="n">
-        <v>7014846.686333674</v>
+        <v>6205957.224460583</v>
       </c>
       <c r="D28" t="n">
-        <v>6738926.481091253</v>
+        <v>5526997.95208508</v>
       </c>
       <c r="E28" t="n">
-        <v>6852539.228381963</v>
+        <v>6116049.322298627</v>
       </c>
       <c r="F28" t="n">
-        <v>6352294.309335003</v>
+        <v>10328820.45915718</v>
       </c>
       <c r="G28" t="n">
-        <v>7053782.072528337</v>
+        <v>8117853.315157385</v>
       </c>
       <c r="H28" t="n">
-        <v>4488390.00097055</v>
+        <v>10253873.18445387</v>
       </c>
       <c r="I28" t="n">
-        <v>4389897.233052868</v>
+        <v>10565608.98269463</v>
       </c>
       <c r="J28" t="n">
-        <v>6889162.602421451</v>
+        <v>9909940.457615841</v>
       </c>
       <c r="K28" t="n">
-        <v>10137946.16683267</v>
+        <v>6766799.008799065</v>
       </c>
       <c r="L28" t="n">
-        <v>12563833.55624976</v>
+        <v>9321675.0199845</v>
       </c>
       <c r="M28" t="n">
-        <v>12317209.12703743</v>
+        <v>9779683.291881999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14742178.27483879</v>
+        <v>2180444.073494593</v>
       </c>
       <c r="C29" t="n">
-        <v>14812102.64248285</v>
+        <v>2161456.729552023</v>
       </c>
       <c r="D29" t="n">
-        <v>16342946.12452848</v>
+        <v>1906670.097952185</v>
       </c>
       <c r="E29" t="n">
-        <v>18371546.38994437</v>
+        <v>1935214.002422527</v>
       </c>
       <c r="F29" t="n">
-        <v>18084428.37414756</v>
+        <v>1769407.670695703</v>
       </c>
       <c r="G29" t="n">
-        <v>14459328.43139333</v>
+        <v>1905713.162620779</v>
       </c>
       <c r="H29" t="n">
-        <v>13251147.31803314</v>
+        <v>1750144.177594188</v>
       </c>
       <c r="I29" t="n">
-        <v>14341296.15784469</v>
+        <v>2120726.815209703</v>
       </c>
       <c r="J29" t="n">
-        <v>13489993.93513237</v>
+        <v>2265654.310920854</v>
       </c>
       <c r="K29" t="n">
-        <v>13760515.24174371</v>
+        <v>2236084.244652833</v>
       </c>
       <c r="L29" t="n">
-        <v>12817458.43773046</v>
+        <v>2380247.734779413</v>
       </c>
       <c r="M29" t="n">
-        <v>15634992.45287313</v>
+        <v>2422712.190910542</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48235001.45140894</v>
+        <v>758232.4287402987</v>
       </c>
       <c r="C30" t="n">
-        <v>40854090.10032994</v>
+        <v>670309.5931295598</v>
       </c>
       <c r="D30" t="n">
-        <v>42094017.51059272</v>
+        <v>707162.2051231918</v>
       </c>
       <c r="E30" t="n">
-        <v>48701453.27167362</v>
+        <v>714403.5415879139</v>
       </c>
       <c r="F30" t="n">
-        <v>45919729.23713405</v>
+        <v>1437129.939187041</v>
       </c>
       <c r="G30" t="n">
-        <v>40742430.76956967</v>
+        <v>753436.192487428</v>
       </c>
       <c r="H30" t="n">
-        <v>37844234.64581801</v>
+        <v>700438.9465444321</v>
       </c>
       <c r="I30" t="n">
-        <v>40151528.07692481</v>
+        <v>707953.0198208456</v>
       </c>
       <c r="J30" t="n">
-        <v>41840015.20817665</v>
+        <v>801892.7542755484</v>
       </c>
       <c r="K30" t="n">
-        <v>45957232.82787926</v>
+        <v>612802.4934988477</v>
       </c>
       <c r="L30" t="n">
-        <v>41773874.94018342</v>
+        <v>521661.1633653949</v>
       </c>
       <c r="M30" t="n">
-        <v>43282931.29912317</v>
+        <v>719576.5710761917</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46711413.08187661</v>
+        <v>615566.365372304</v>
       </c>
       <c r="C31" t="n">
-        <v>46505918.19866114</v>
+        <v>880419.7123163713</v>
       </c>
       <c r="D31" t="n">
-        <v>48265823.03932449</v>
+        <v>930288.0394195004</v>
       </c>
       <c r="E31" t="n">
-        <v>45455845.23526353</v>
+        <v>1123058.695578937</v>
       </c>
       <c r="F31" t="n">
-        <v>42619358.02678716</v>
+        <v>898651.8152057431</v>
       </c>
       <c r="G31" t="n">
-        <v>40799904.41562238</v>
+        <v>583114.1536607093</v>
       </c>
       <c r="H31" t="n">
-        <v>37604504.97019777</v>
+        <v>572119.2569108695</v>
       </c>
       <c r="I31" t="n">
-        <v>38565866.01555006</v>
+        <v>980998.9833768676</v>
       </c>
       <c r="J31" t="n">
-        <v>39864120.09368929</v>
+        <v>691226.1910369584</v>
       </c>
       <c r="K31" t="n">
-        <v>40933366.75820179</v>
+        <v>515736.9778693734</v>
       </c>
       <c r="L31" t="n">
-        <v>38991681.08849027</v>
+        <v>757850.9065747972</v>
       </c>
       <c r="M31" t="n">
-        <v>40781733.10291336</v>
+        <v>477492.9744574494</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>354455.2101486445</v>
+        <v>1750674.110317887</v>
       </c>
       <c r="C32" t="n">
-        <v>344680.9995441498</v>
+        <v>2173498.25752218</v>
       </c>
       <c r="D32" t="n">
-        <v>325617.2903050638</v>
+        <v>2093916.638219036</v>
       </c>
       <c r="E32" t="n">
-        <v>305101.5682895858</v>
+        <v>1708869.157410778</v>
       </c>
       <c r="F32" t="n">
-        <v>284450.8176279374</v>
+        <v>2029756.709119238</v>
       </c>
       <c r="G32" t="n">
-        <v>263490.9699228257</v>
+        <v>1413059.538902633</v>
       </c>
       <c r="H32" t="n">
-        <v>241860.2463212524</v>
+        <v>1548221.970809565</v>
       </c>
       <c r="I32" t="n">
-        <v>387429.4177510775</v>
+        <v>1866074.426843365</v>
       </c>
       <c r="J32" t="n">
-        <v>466273.9115791669</v>
+        <v>1981674.299855662</v>
       </c>
       <c r="K32" t="n">
-        <v>421667.4884091483</v>
+        <v>1731456.658022873</v>
       </c>
       <c r="L32" t="n">
-        <v>330994.0191824408</v>
+        <v>1744696.531020067</v>
       </c>
       <c r="M32" t="n">
-        <v>757240.3458821347</v>
+        <v>1962463.078143776</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3426412.668571658</v>
+        <v>2355747.038633271</v>
       </c>
       <c r="C33" t="n">
-        <v>5164099.752908619</v>
+        <v>2223544.863450157</v>
       </c>
       <c r="D33" t="n">
-        <v>4496636.755581038</v>
+        <v>1995792.985905169</v>
       </c>
       <c r="E33" t="n">
-        <v>4010493.053306274</v>
+        <v>1788272.860601095</v>
       </c>
       <c r="F33" t="n">
-        <v>5281493.610087463</v>
+        <v>2009368.839957325</v>
       </c>
       <c r="G33" t="n">
-        <v>4574612.063192412</v>
+        <v>2120831.949258332</v>
       </c>
       <c r="H33" t="n">
-        <v>3843539.314500366</v>
+        <v>1689951.846855896</v>
       </c>
       <c r="I33" t="n">
-        <v>3108358.490289589</v>
+        <v>2166213.018867065</v>
       </c>
       <c r="J33" t="n">
-        <v>5361926.019865511</v>
+        <v>2429755.542209671</v>
       </c>
       <c r="K33" t="n">
-        <v>5097327.250406876</v>
+        <v>1872868.555021543</v>
       </c>
       <c r="L33" t="n">
-        <v>3272907.047048967</v>
+        <v>2278282.337083771</v>
       </c>
       <c r="M33" t="n">
-        <v>4096384.551452805</v>
+        <v>2429773.279701541</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10716209.762689</v>
+        <v>3344039.925631108</v>
       </c>
       <c r="C34" t="n">
-        <v>8005511.523309291</v>
+        <v>2090863.989805278</v>
       </c>
       <c r="D34" t="n">
-        <v>13879960.32246408</v>
+        <v>3140718.368609468</v>
       </c>
       <c r="E34" t="n">
-        <v>12187706.31789456</v>
+        <v>2321291.595336966</v>
       </c>
       <c r="F34" t="n">
-        <v>15394124.17029211</v>
+        <v>2939414.277124874</v>
       </c>
       <c r="G34" t="n">
-        <v>13299720.49106085</v>
+        <v>2640794.595133979</v>
       </c>
       <c r="H34" t="n">
-        <v>13811072.87249584</v>
+        <v>2214048.398202192</v>
       </c>
       <c r="I34" t="n">
-        <v>8971758.070566833</v>
+        <v>2392205.170414547</v>
       </c>
       <c r="J34" t="n">
-        <v>8971139.68290611</v>
+        <v>2474301.61812098</v>
       </c>
       <c r="K34" t="n">
-        <v>12356983.16788275</v>
+        <v>3012310.401637302</v>
       </c>
       <c r="L34" t="n">
-        <v>10595081.78611157</v>
+        <v>2935801.264978337</v>
       </c>
       <c r="M34" t="n">
-        <v>10251639.29850482</v>
+        <v>2373273.450184459</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5137249.399046345</v>
+        <v>1529450.131015243</v>
       </c>
       <c r="C35" t="n">
-        <v>4726967.934431937</v>
+        <v>1708348.51094434</v>
       </c>
       <c r="D35" t="n">
-        <v>5592178.651057154</v>
+        <v>1948126.049464907</v>
       </c>
       <c r="E35" t="n">
-        <v>5854994.106156764</v>
+        <v>1510949.929715301</v>
       </c>
       <c r="F35" t="n">
-        <v>6244481.700937834</v>
+        <v>1469591.53306669</v>
       </c>
       <c r="G35" t="n">
-        <v>4980803.448243685</v>
+        <v>1118563.728559422</v>
       </c>
       <c r="H35" t="n">
-        <v>3892544.593158677</v>
+        <v>1061366.804383207</v>
       </c>
       <c r="I35" t="n">
-        <v>5258275.107457573</v>
+        <v>1898422.58041108</v>
       </c>
       <c r="J35" t="n">
-        <v>4568763.664967565</v>
+        <v>1441791.498924207</v>
       </c>
       <c r="K35" t="n">
-        <v>5421342.476523499</v>
+        <v>1357913.140417525</v>
       </c>
       <c r="L35" t="n">
-        <v>4614179.03941446</v>
+        <v>1078278.930994619</v>
       </c>
       <c r="M35" t="n">
-        <v>4277039.924681103</v>
+        <v>1863484.813779108</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1551766.23597865</v>
+        <v>1173097.086824147</v>
       </c>
       <c r="C36" t="n">
-        <v>2519307.876822091</v>
+        <v>1019268.591100068</v>
       </c>
       <c r="D36" t="n">
-        <v>3290422.982842137</v>
+        <v>1341871.544412492</v>
       </c>
       <c r="E36" t="n">
-        <v>2561376.407981285</v>
+        <v>934685.4207375073</v>
       </c>
       <c r="F36" t="n">
-        <v>2384420.907013976</v>
+        <v>991118.5548696734</v>
       </c>
       <c r="G36" t="n">
-        <v>2404389.260479036</v>
+        <v>1063757.319883272</v>
       </c>
       <c r="H36" t="n">
-        <v>1893824.532556952</v>
+        <v>1791856.970717955</v>
       </c>
       <c r="I36" t="n">
-        <v>2753656.762067509</v>
+        <v>1385375.692247631</v>
       </c>
       <c r="J36" t="n">
-        <v>2284862.939100293</v>
+        <v>1721024.334341324</v>
       </c>
       <c r="K36" t="n">
-        <v>3180325.239966404</v>
+        <v>1459972.448271059</v>
       </c>
       <c r="L36" t="n">
-        <v>4276208.800616326</v>
+        <v>1448532.433416804</v>
       </c>
       <c r="M36" t="n">
-        <v>2292492.744800676</v>
+        <v>1347273.115547588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7797033.919222103</v>
+        <v>4456424.931247267</v>
       </c>
       <c r="C37" t="n">
-        <v>7984050.354103135</v>
+        <v>3585550.887621773</v>
       </c>
       <c r="D37" t="n">
-        <v>4800557.659058814</v>
+        <v>4481901.468999466</v>
       </c>
       <c r="E37" t="n">
-        <v>6852727.831907131</v>
+        <v>3923399.641841175</v>
       </c>
       <c r="F37" t="n">
-        <v>5034228.318195472</v>
+        <v>3317170.943908225</v>
       </c>
       <c r="G37" t="n">
-        <v>6338432.392617336</v>
+        <v>3391301.723684075</v>
       </c>
       <c r="H37" t="n">
-        <v>4371927.383556435</v>
+        <v>3140554.764280468</v>
       </c>
       <c r="I37" t="n">
-        <v>5885307.180544634</v>
+        <v>4306793.418865802</v>
       </c>
       <c r="J37" t="n">
-        <v>7549870.925271899</v>
+        <v>4656441.607316813</v>
       </c>
       <c r="K37" t="n">
-        <v>4744882.698292893</v>
+        <v>3905309.198362045</v>
       </c>
       <c r="L37" t="n">
-        <v>4051986.155433394</v>
+        <v>3112659.345198844</v>
       </c>
       <c r="M37" t="n">
-        <v>3383786.16982048</v>
+        <v>3970294.11976923</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1809953.568589829</v>
+        <v>3770883.209730474</v>
       </c>
       <c r="C38" t="n">
-        <v>1502144.896339471</v>
+        <v>4740442.977884047</v>
       </c>
       <c r="D38" t="n">
-        <v>2496167.374660645</v>
+        <v>4026608.128519147</v>
       </c>
       <c r="E38" t="n">
-        <v>2844657.68954284</v>
+        <v>3375348.021168478</v>
       </c>
       <c r="F38" t="n">
-        <v>2578654.631803285</v>
+        <v>4106808.020536751</v>
       </c>
       <c r="G38" t="n">
-        <v>1224189.270079467</v>
+        <v>2773578.534641678</v>
       </c>
       <c r="H38" t="n">
-        <v>2155868.764248388</v>
+        <v>3747093.219409393</v>
       </c>
       <c r="I38" t="n">
-        <v>3698718.553153616</v>
+        <v>3390331.566227878</v>
       </c>
       <c r="J38" t="n">
-        <v>4424394.959413214</v>
+        <v>3748489.519987748</v>
       </c>
       <c r="K38" t="n">
-        <v>1194218.860573293</v>
+        <v>4108746.200749247</v>
       </c>
       <c r="L38" t="n">
-        <v>2049913.50422836</v>
+        <v>3619986.75003714</v>
       </c>
       <c r="M38" t="n">
-        <v>2611995.668539702</v>
+        <v>3795456.561532652</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3637374.063649263</v>
+        <v>5106970.566432173</v>
       </c>
       <c r="C39" t="n">
-        <v>3398094.991501789</v>
+        <v>5326402.742317123</v>
       </c>
       <c r="D39" t="n">
-        <v>3797443.309429002</v>
+        <v>6254908.755665324</v>
       </c>
       <c r="E39" t="n">
-        <v>4582204.000565673</v>
+        <v>4556881.36196649</v>
       </c>
       <c r="F39" t="n">
-        <v>4590671.791640231</v>
+        <v>4869115.698073871</v>
       </c>
       <c r="G39" t="n">
-        <v>4399317.769397799</v>
+        <v>4276238.239847096</v>
       </c>
       <c r="H39" t="n">
-        <v>3895493.896108259</v>
+        <v>4307371.142806122</v>
       </c>
       <c r="I39" t="n">
-        <v>3088391.785100064</v>
+        <v>5389802.831565344</v>
       </c>
       <c r="J39" t="n">
-        <v>3839573.098216192</v>
+        <v>5447341.64993076</v>
       </c>
       <c r="K39" t="n">
-        <v>4418561.375316327</v>
+        <v>5392388.057012977</v>
       </c>
       <c r="L39" t="n">
-        <v>3860511.29078107</v>
+        <v>5041569.154047456</v>
       </c>
       <c r="M39" t="n">
-        <v>4550185.521833478</v>
+        <v>5205559.409294201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10470450.44989117</v>
+        <v>5381098.083457693</v>
       </c>
       <c r="C40" t="n">
-        <v>9702480.214410475</v>
+        <v>5462561.435851759</v>
       </c>
       <c r="D40" t="n">
-        <v>12473414.87376846</v>
+        <v>5523443.572627364</v>
       </c>
       <c r="E40" t="n">
-        <v>12639610.3189271</v>
+        <v>5606001.356779141</v>
       </c>
       <c r="F40" t="n">
-        <v>12539743.51623289</v>
+        <v>5591018.330810978</v>
       </c>
       <c r="G40" t="n">
-        <v>12306043.55942183</v>
+        <v>4186088.674451426</v>
       </c>
       <c r="H40" t="n">
-        <v>9667770.946730908</v>
+        <v>4393116.742870289</v>
       </c>
       <c r="I40" t="n">
-        <v>8065634.446723862</v>
+        <v>5876322.892425196</v>
       </c>
       <c r="J40" t="n">
-        <v>10303731.41503262</v>
+        <v>5141227.124935238</v>
       </c>
       <c r="K40" t="n">
-        <v>12492956.42945996</v>
+        <v>5158327.475494528</v>
       </c>
       <c r="L40" t="n">
-        <v>10719786.91448272</v>
+        <v>5295723.77798648</v>
       </c>
       <c r="M40" t="n">
-        <v>14027095.66172769</v>
+        <v>4842386.773649598</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4254673.889875328</v>
+        <v>2980490.168867226</v>
       </c>
       <c r="C41" t="n">
-        <v>8490334.241978446</v>
+        <v>3295616.037650114</v>
       </c>
       <c r="D41" t="n">
-        <v>6269561.417787426</v>
+        <v>3300650.30015913</v>
       </c>
       <c r="E41" t="n">
-        <v>6849590.946890714</v>
+        <v>2865372.66398201</v>
       </c>
       <c r="F41" t="n">
-        <v>6898173.156124207</v>
+        <v>3853060.791609399</v>
       </c>
       <c r="G41" t="n">
-        <v>6182451.834112562</v>
+        <v>3181132.434099246</v>
       </c>
       <c r="H41" t="n">
-        <v>2175931.056533118</v>
+        <v>2163535.827970556</v>
       </c>
       <c r="I41" t="n">
-        <v>8178539.528094221</v>
+        <v>3164959.588448991</v>
       </c>
       <c r="J41" t="n">
-        <v>7621446.284599399</v>
+        <v>3751249.930679398</v>
       </c>
       <c r="K41" t="n">
-        <v>8458732.956025479</v>
+        <v>2702809.872825881</v>
       </c>
       <c r="L41" t="n">
-        <v>8273811.045311039</v>
+        <v>2862221.71789389</v>
       </c>
       <c r="M41" t="n">
-        <v>7910496.246688128</v>
+        <v>2944014.25625113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10971652.65966577</v>
+        <v>4823393.743549829</v>
       </c>
       <c r="C42" t="n">
-        <v>8887936.559020497</v>
+        <v>5486588.089345565</v>
       </c>
       <c r="D42" t="n">
-        <v>9610549.760872593</v>
+        <v>4487344.341559384</v>
       </c>
       <c r="E42" t="n">
-        <v>9559476.056194194</v>
+        <v>4689293.125469095</v>
       </c>
       <c r="F42" t="n">
-        <v>12876231.15969238</v>
+        <v>4549249.382459867</v>
       </c>
       <c r="G42" t="n">
-        <v>14133237.03284925</v>
+        <v>3265560.217787259</v>
       </c>
       <c r="H42" t="n">
-        <v>7508518.190736312</v>
+        <v>3676484.586110177</v>
       </c>
       <c r="I42" t="n">
-        <v>9963559.393736042</v>
+        <v>3751626.163522302</v>
       </c>
       <c r="J42" t="n">
-        <v>11488687.31561219</v>
+        <v>4152297.883426731</v>
       </c>
       <c r="K42" t="n">
-        <v>11957808.91608031</v>
+        <v>4362871.709365396</v>
       </c>
       <c r="L42" t="n">
-        <v>8315057.261181422</v>
+        <v>4110496.191984111</v>
       </c>
       <c r="M42" t="n">
-        <v>9497221.485687694</v>
+        <v>3606567.792282455</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4234456.018698829</v>
+        <v>2830620.078140818</v>
       </c>
       <c r="C43" t="n">
-        <v>3959811.696474927</v>
+        <v>2435648.124693772</v>
       </c>
       <c r="D43" t="n">
-        <v>4303107.164439601</v>
+        <v>2938955.989186</v>
       </c>
       <c r="E43" t="n">
-        <v>4891669.28322734</v>
+        <v>2952923.238073284</v>
       </c>
       <c r="F43" t="n">
-        <v>5134548.734925293</v>
+        <v>3732517.581820006</v>
       </c>
       <c r="G43" t="n">
-        <v>7278277.411564367</v>
+        <v>2042689.678541052</v>
       </c>
       <c r="H43" t="n">
-        <v>3117739.782131555</v>
+        <v>2091869.775333946</v>
       </c>
       <c r="I43" t="n">
-        <v>4738761.915855352</v>
+        <v>3288315.644232203</v>
       </c>
       <c r="J43" t="n">
-        <v>5068215.828852072</v>
+        <v>3612276.157857074</v>
       </c>
       <c r="K43" t="n">
-        <v>5605545.112571093</v>
+        <v>3289674.603535447</v>
       </c>
       <c r="L43" t="n">
-        <v>4357662.677743935</v>
+        <v>3071629.904865042</v>
       </c>
       <c r="M43" t="n">
-        <v>4631430.624033509</v>
+        <v>3080698.201100144</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10489822.0073405</v>
+        <v>4692935.887514818</v>
       </c>
       <c r="C44" t="n">
-        <v>12165599.55721501</v>
+        <v>5838366.121935061</v>
       </c>
       <c r="D44" t="n">
-        <v>12919776.58882387</v>
+        <v>4819544.296546788</v>
       </c>
       <c r="E44" t="n">
-        <v>12208314.12792478</v>
+        <v>5540416.50189193</v>
       </c>
       <c r="F44" t="n">
-        <v>11158245.18566844</v>
+        <v>6564297.068230676</v>
       </c>
       <c r="G44" t="n">
-        <v>12827895.27690759</v>
+        <v>5218416.327105253</v>
       </c>
       <c r="H44" t="n">
-        <v>9918137.965110226</v>
+        <v>5019647.658333007</v>
       </c>
       <c r="I44" t="n">
-        <v>13673796.08170705</v>
+        <v>6252037.388894236</v>
       </c>
       <c r="J44" t="n">
-        <v>12835175.2287134</v>
+        <v>5542864.363668774</v>
       </c>
       <c r="K44" t="n">
-        <v>12880626.4723745</v>
+        <v>5221675.623630594</v>
       </c>
       <c r="L44" t="n">
-        <v>15166299.06459552</v>
+        <v>5131513.28146436</v>
       </c>
       <c r="M44" t="n">
-        <v>12102301.39049636</v>
+        <v>5663663.689312394</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7253643.967784643</v>
+        <v>3274601.005587952</v>
       </c>
       <c r="C45" t="n">
-        <v>5674165.063856451</v>
+        <v>3728584.711411875</v>
       </c>
       <c r="D45" t="n">
-        <v>6235540.750666177</v>
+        <v>2731499.475333141</v>
       </c>
       <c r="E45" t="n">
-        <v>5890896.337890858</v>
+        <v>3342684.520545817</v>
       </c>
       <c r="F45" t="n">
-        <v>5814239.210192074</v>
+        <v>3413670.757425421</v>
       </c>
       <c r="G45" t="n">
-        <v>8112119.709612205</v>
+        <v>2537726.146173573</v>
       </c>
       <c r="H45" t="n">
-        <v>5453878.409178975</v>
+        <v>2667026.39464889</v>
       </c>
       <c r="I45" t="n">
-        <v>6812478.721726029</v>
+        <v>3168577.191046714</v>
       </c>
       <c r="J45" t="n">
-        <v>7651967.568209057</v>
+        <v>3664789.328223648</v>
       </c>
       <c r="K45" t="n">
-        <v>6089948.062131471</v>
+        <v>3583224.430725299</v>
       </c>
       <c r="L45" t="n">
-        <v>6093637.632511584</v>
+        <v>2841642.342339569</v>
       </c>
       <c r="M45" t="n">
-        <v>4412356.645194501</v>
+        <v>3110413.218778234</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11465380.39607559</v>
+        <v>2213070.715044537</v>
       </c>
       <c r="C46" t="n">
-        <v>11071561.07169094</v>
+        <v>2621086.074710722</v>
       </c>
       <c r="D46" t="n">
-        <v>6522291.880489253</v>
+        <v>2614714.556903614</v>
       </c>
       <c r="E46" t="n">
-        <v>5835935.191288188</v>
+        <v>1998003.667208813</v>
       </c>
       <c r="F46" t="n">
-        <v>6422866.320995625</v>
+        <v>2123647.290827037</v>
       </c>
       <c r="G46" t="n">
-        <v>10635472.93803434</v>
+        <v>1993585.243305927</v>
       </c>
       <c r="H46" t="n">
-        <v>8425356.688880784</v>
+        <v>1934697.389868338</v>
       </c>
       <c r="I46" t="n">
-        <v>10561953.37321664</v>
+        <v>3248215.348591755</v>
       </c>
       <c r="J46" t="n">
-        <v>10873263.20365364</v>
+        <v>2160143.586519157</v>
       </c>
       <c r="K46" t="n">
-        <v>10215261.33116551</v>
+        <v>2050518.822982639</v>
       </c>
       <c r="L46" t="n">
-        <v>7069165.248968573</v>
+        <v>2077188.828774508</v>
       </c>
       <c r="M46" t="n">
-        <v>9625973.691212015</v>
+        <v>2075796.758084528</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2179616.992660957</v>
+        <v>2185982.540079355</v>
       </c>
       <c r="C47" t="n">
-        <v>2137278.225307641</v>
+        <v>2160226.54124597</v>
       </c>
       <c r="D47" t="n">
-        <v>2127015.014635026</v>
+        <v>2272564.477718183</v>
       </c>
       <c r="E47" t="n">
-        <v>1869451.204754506</v>
+        <v>1831136.773859092</v>
       </c>
       <c r="F47" t="n">
-        <v>1894374.184712123</v>
+        <v>1766931.887067843</v>
       </c>
       <c r="G47" t="n">
-        <v>1725105.278217494</v>
+        <v>1851341.819779471</v>
       </c>
       <c r="H47" t="n">
-        <v>1858181.906837688</v>
+        <v>1915929.894066638</v>
       </c>
       <c r="I47" t="n">
-        <v>1699698.415472898</v>
+        <v>2254498.472916748</v>
       </c>
       <c r="J47" t="n">
-        <v>2067730.381757878</v>
+        <v>2559887.07320029</v>
       </c>
       <c r="K47" t="n">
-        <v>2210498.968626166</v>
+        <v>2489272.763887992</v>
       </c>
       <c r="L47" t="n">
-        <v>2179276.373544946</v>
+        <v>1915329.035080068</v>
       </c>
       <c r="M47" t="n">
-        <v>2322351.921320476</v>
+        <v>1951908.228421185</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>837063.0080580981</v>
+        <v>5154800.61520357</v>
       </c>
       <c r="C48" t="n">
-        <v>798179.8144944877</v>
+        <v>5994082.976058502</v>
       </c>
       <c r="D48" t="n">
-        <v>714987.8488538305</v>
+        <v>5774277.884913152</v>
       </c>
       <c r="E48" t="n">
-        <v>747716.0318128411</v>
+        <v>5170203.265297303</v>
       </c>
       <c r="F48" t="n">
-        <v>750334.9334829575</v>
+        <v>5571941.305271643</v>
       </c>
       <c r="G48" t="n">
-        <v>1468668.077900635</v>
+        <v>5613200.454684085</v>
       </c>
       <c r="H48" t="n">
-        <v>780756.5991568353</v>
+        <v>5218356.76582199</v>
       </c>
       <c r="I48" t="n">
-        <v>723646.9381772989</v>
+        <v>5521759.221781011</v>
       </c>
       <c r="J48" t="n">
-        <v>727077.3772111174</v>
+        <v>6221174.444326271</v>
       </c>
       <c r="K48" t="n">
-        <v>816934.9083948217</v>
+        <v>5085759.19769261</v>
       </c>
       <c r="L48" t="n">
-        <v>623678.1866497346</v>
+        <v>4702448.308254015</v>
       </c>
       <c r="M48" t="n">
-        <v>528162.8767195821</v>
+        <v>5330395.329959687</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>620019.1606900921</v>
+        <v>616616.4582171765</v>
       </c>
       <c r="C49" t="n">
-        <v>620888.9375725394</v>
+        <v>837783.8575344156</v>
       </c>
       <c r="D49" t="n">
-        <v>880967.8877397216</v>
+        <v>545061.9676476141</v>
       </c>
       <c r="E49" t="n">
-        <v>931264.8503837123</v>
+        <v>555776.1991208242</v>
       </c>
       <c r="F49" t="n">
-        <v>1123661.702869318</v>
+        <v>647915.6728961981</v>
       </c>
       <c r="G49" t="n">
-        <v>898453.6465645143</v>
+        <v>450043.2349436495</v>
       </c>
       <c r="H49" t="n">
-        <v>581916.9441257085</v>
+        <v>655472.6653828558</v>
       </c>
       <c r="I49" t="n">
-        <v>569779.687087079</v>
+        <v>894758.0247961713</v>
       </c>
       <c r="J49" t="n">
-        <v>977373.9017295521</v>
+        <v>843464.4707652479</v>
       </c>
       <c r="K49" t="n">
-        <v>686162.6248344464</v>
+        <v>574738.6218545167</v>
       </c>
       <c r="L49" t="n">
-        <v>509073.2231033312</v>
+        <v>642978.7629631564</v>
       </c>
       <c r="M49" t="n">
-        <v>749678.7850790771</v>
+        <v>613952.0710773994</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1702309.202672485</v>
+        <v>3034826.405465928</v>
       </c>
       <c r="C50" t="n">
-        <v>1682634.00082086</v>
+        <v>2767096.861674688</v>
       </c>
       <c r="D50" t="n">
-        <v>2108997.318858914</v>
+        <v>2712173.805830086</v>
       </c>
       <c r="E50" t="n">
-        <v>2030084.019239998</v>
+        <v>2736227.504056903</v>
       </c>
       <c r="F50" t="n">
-        <v>1645870.048650565</v>
+        <v>2843639.557248149</v>
       </c>
       <c r="G50" t="n">
-        <v>1967870.35041239</v>
+        <v>2379826.663377099</v>
       </c>
       <c r="H50" t="n">
-        <v>1352501.660559332</v>
+        <v>2532922.603257534</v>
       </c>
       <c r="I50" t="n">
-        <v>1489233.150437066</v>
+        <v>2675522.398777474</v>
       </c>
       <c r="J50" t="n">
-        <v>1808902.99704389</v>
+        <v>2976594.422911531</v>
       </c>
       <c r="K50" t="n">
-        <v>1926537.433908722</v>
+        <v>2402040.929745819</v>
       </c>
       <c r="L50" t="n">
-        <v>1678739.530007908</v>
+        <v>3205373.635108347</v>
       </c>
       <c r="M50" t="n">
-        <v>1698288.710914363</v>
+        <v>2740671.60598476</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2722871.608946001</v>
+        <v>3158212.392701149</v>
       </c>
       <c r="C51" t="n">
-        <v>2439767.963203332</v>
+        <v>3457571.812322769</v>
       </c>
       <c r="D51" t="n">
-        <v>2301005.565498667</v>
+        <v>3339727.3582119</v>
       </c>
       <c r="E51" t="n">
-        <v>2069112.829659944</v>
+        <v>3382942.733979435</v>
       </c>
       <c r="F51" t="n">
-        <v>1855605.638874957</v>
+        <v>3224065.633210831</v>
       </c>
       <c r="G51" t="n">
-        <v>2070254.933577584</v>
+        <v>2841010.34345901</v>
       </c>
       <c r="H51" t="n">
-        <v>2175144.122118522</v>
+        <v>3112913.934267472</v>
       </c>
       <c r="I51" t="n">
-        <v>1737529.497127421</v>
+        <v>3192900.146184396</v>
       </c>
       <c r="J51" t="n">
-        <v>2206766.806686966</v>
+        <v>3495777.87345789</v>
       </c>
       <c r="K51" t="n">
-        <v>2463016.165688191</v>
+        <v>3293939.411760593</v>
       </c>
       <c r="L51" t="n">
-        <v>1898408.453415019</v>
+        <v>3057312.838099342</v>
       </c>
       <c r="M51" t="n">
-        <v>2295012.535369736</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2277482.25578697</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3128308.754302583</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1872316.711713708</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2935123.295334291</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2132297.118647371</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2767491.437386543</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2485778.096795054</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2075664.118141478</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2270140.773454075</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2368290.374951946</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2920929.281724546</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2848169.241600094</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1911395.745748163</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1661729.19426933</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1850092.501695384</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2080536.854852716</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1633189.222533947</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1581715.083267271</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1220808.12003962</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1153968.327493324</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1981666.705405326</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1516007.97140517</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1423601.249139268</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1135975.83698024</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1500743.483122714</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1199702.834778132</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1051983.37623169</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1373256.304191662</v>
-      </c>
-      <c r="F54" t="n">
-        <v>964059.4453218093</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1018808.094177102</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1089973.264712593</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1816638.746703826</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1408592.46701482</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1742403.442233975</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1479113.518985766</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1465815.933707816</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3782884.47040904</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4298573.726875016</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3448635.268886475</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4352505.294575238</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3804402.709991894</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3210261.496972224</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3297144.904190317</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3059463.067897081</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4238838.171071832</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4601368.653485736</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3862269.862036552</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3082998.375260867</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3926177.231069305</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3747798.623468529</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4711625.193012388</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3998515.103244047</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3347519.707377166</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4078658.567018359</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2744768.234088285</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3717264.759693178</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3359138.440849881</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3715550.22377685</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4073851.971531842</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3582225.36004085</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5321381.586157704</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5010875.146856839</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5210341.269144627</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6139761.055234386</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4444496.190872188</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4758445.11575846</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4166592.884680866</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4198135.806774385</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5280570.037934598</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5337789.479516933</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5282609.909134358</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4930456.150977868</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4916984.734520388</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5307207.446797521</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5384828.7279576</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5445512.682830378</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5528559.726953421</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5513843.327408312</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4109013.338297963</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4316013.573889271</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5799118.043514153</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5063833.647214646</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5080525.940954565</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5219433.525406288</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3020497.505576278</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2975190.5923456</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3282305.374261232</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3282932.446085027</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2843363.074890313</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3826197.774937572</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3149187.765089649</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2126649.188520189</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3123603.462652167</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3706215.793780111</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2655232.255874628</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2812090.418946143</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3962312.828419505</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4727581.797361008</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5382152.11820396</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4385367.479365608</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4591152.3500951</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4454606.204952301</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3173989.540053445</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3587493.044480511</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3664709.007803588</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4066876.308411756</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4278500.604198627</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4028113.541538774</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2947222.964470075</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2810159.613935621</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2426695.835865766</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2928394.886380284</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2940964.940675912</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3719956.499110596</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2029962.401867592</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2079259.450808367</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3275997.689990816</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3600298.107305453</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3277833.881911237</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3060734.101899267</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5969781.846196245</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4740271.30693906</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5876247.459061345</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4851649.020471077</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5567968.821464218</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6586390.134637057</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5234558.9186232</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5029512.302779112</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6255577.768874813</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5540259.753184555</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5213417.308971783</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5113036.375288222</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3146315.27413887</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3235379.93838113</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3685839.991786466</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2688110.160105449</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3298496.49171978</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3368393.322479179</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2491190.331980433</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2619202.901548488</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3119589.707716162</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3614894.36575113</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3532693.790526946</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2788243.704693864</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1996821.604005747</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2105814.30286652</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2502940.853056754</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2503748.945654037</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1895634.172741976</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2029286.395087363</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1906676.327732726</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1854854.268756298</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3175239.70376373</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2093903.756238343</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1990704.097262537</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2023082.838846229</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2552415.851680976</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2358015.713114191</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2338520.969751136</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2437712.247437922</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1977679.218740577</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1894585.286965603</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1960314.013394063</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2006271.787508721</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2325964.240395066</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2612078.634398608</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2521788.932488036</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1928101.848117712</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4676057.764910684</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4852732.694996501</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5683618.368435971</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5472474.115550595</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4878473.394512529</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5289556.735106903</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5339761.527282181</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4953892.553209105</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5266740.170774383</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5976304.047216253</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4852268.536665369</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4481339.370427462</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>676148.0667713262</v>
-      </c>
-      <c r="C67" t="n">
-        <v>605577.3033970244</v>
-      </c>
-      <c r="D67" t="n">
-        <v>824752.6145263528</v>
-      </c>
-      <c r="E67" t="n">
-        <v>531704.4184742391</v>
-      </c>
-      <c r="F67" t="n">
-        <v>542167.3931320421</v>
-      </c>
-      <c r="G67" t="n">
-        <v>634047.7499476835</v>
-      </c>
-      <c r="H67" t="n">
-        <v>435846.4810189515</v>
-      </c>
-      <c r="I67" t="n">
-        <v>640830.7474709571</v>
-      </c>
-      <c r="J67" t="n">
-        <v>879495.1797996925</v>
-      </c>
-      <c r="K67" t="n">
-        <v>827343.8001191985</v>
-      </c>
-      <c r="L67" t="n">
-        <v>557465.6967476855</v>
-      </c>
-      <c r="M67" t="n">
-        <v>625777.1745878565</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2994027.589408367</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3060091.624374275</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2787139.023292338</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2727398.486798178</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2744190.538901774</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2843727.787328596</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2371778.647831775</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2516498.374050827</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2650389.667343958</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2942388.523373412</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2358370.141332796</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3152557.850238214</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2972008.510375835</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2997692.065320737</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3283365.680945385</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3169660.146204842</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3216184.696010323</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3059801.248858724</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2678654.486386776</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2951984.769096663</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3032889.834559185</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3336154.640911155</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3133960.92950979</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2896896.16746708</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>3397633.473238659</v>
-      </c>
-      <c r="C70" t="n">
-        <v>2744786.84900523</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3366772.597317167</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3654736.900834696</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3752497.918990328</v>
-      </c>
-      <c r="G70" t="n">
-        <v>4547793.606976209</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3885537.970549116</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3839744.212245455</v>
-      </c>
-      <c r="J70" t="n">
-        <v>2834244.076654771</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3191660.367900386</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3732628.073225766</v>
-      </c>
-      <c r="M70" t="n">
-        <v>6273125.943190989</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>16193493.97570709</v>
-      </c>
-      <c r="C71" t="n">
-        <v>17004414.61132964</v>
-      </c>
-      <c r="D71" t="n">
-        <v>17383520.69605317</v>
-      </c>
-      <c r="E71" t="n">
-        <v>17228443.78329213</v>
-      </c>
-      <c r="F71" t="n">
-        <v>19452694.46732527</v>
-      </c>
-      <c r="G71" t="n">
-        <v>38072319.18418467</v>
-      </c>
-      <c r="H71" t="n">
-        <v>8886381.44347221</v>
-      </c>
-      <c r="I71" t="n">
-        <v>19697101.74744702</v>
-      </c>
-      <c r="J71" t="n">
-        <v>16892714.16263402</v>
-      </c>
-      <c r="K71" t="n">
-        <v>20615445.01089997</v>
-      </c>
-      <c r="L71" t="n">
-        <v>23255024.86294628</v>
-      </c>
-      <c r="M71" t="n">
-        <v>22835735.96925554</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2900522.899362699</v>
-      </c>
-      <c r="C72" t="n">
-        <v>821639.5557964302</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2507554.828920393</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-1188609.510063807</v>
-      </c>
-      <c r="F72" t="n">
-        <v>3837912.901819111</v>
-      </c>
-      <c r="G72" t="n">
-        <v>196471.8756032479</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-153822.7898411963</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2050089.854283755</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2339903.813216001</v>
-      </c>
-      <c r="K72" t="n">
-        <v>147908.4169803557</v>
-      </c>
-      <c r="L72" t="n">
-        <v>8990582.11287589</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-163139.8428360522</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>8009326.89828895</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7160206.698540105</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6590007.762942522</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7344818.758061505</v>
-      </c>
-      <c r="F73" t="n">
-        <v>5462830.397978589</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6747130.284754898</v>
-      </c>
-      <c r="H73" t="n">
-        <v>5279028.033256547</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7746277.40972754</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9090387.594779445</v>
-      </c>
-      <c r="K73" t="n">
-        <v>8101692.327089146</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11115217.15449344</v>
-      </c>
-      <c r="M73" t="n">
-        <v>7649502.687149459</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>14770469.66104067</v>
-      </c>
-      <c r="C74" t="n">
-        <v>10797843.06883053</v>
-      </c>
-      <c r="D74" t="n">
-        <v>12534142.31057545</v>
-      </c>
-      <c r="E74" t="n">
-        <v>13139086.9307288</v>
-      </c>
-      <c r="F74" t="n">
-        <v>13531118.17461259</v>
-      </c>
-      <c r="G74" t="n">
-        <v>20699960.26489306</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8966368.377472889</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18584682.03717696</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19178411.03500819</v>
-      </c>
-      <c r="K74" t="n">
-        <v>19744419.59919883</v>
-      </c>
-      <c r="L74" t="n">
-        <v>19479355.64521068</v>
-      </c>
-      <c r="M74" t="n">
-        <v>18129312.4051151</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>21454052.43552077</v>
-      </c>
-      <c r="C75" t="n">
-        <v>22857284.25070685</v>
-      </c>
-      <c r="D75" t="n">
-        <v>22250405.92632216</v>
-      </c>
-      <c r="E75" t="n">
-        <v>21940135.71946061</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22844735.61555192</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35129597.89335341</v>
-      </c>
-      <c r="H75" t="n">
-        <v>18394995.99990201</v>
-      </c>
-      <c r="I75" t="n">
-        <v>17392099.24396927</v>
-      </c>
-      <c r="J75" t="n">
-        <v>23732367.97428343</v>
-      </c>
-      <c r="K75" t="n">
-        <v>22060553.10298814</v>
-      </c>
-      <c r="L75" t="n">
-        <v>24362691.99982974</v>
-      </c>
-      <c r="M75" t="n">
-        <v>25756604.9290917</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>7617146.464788101</v>
-      </c>
-      <c r="C76" t="n">
-        <v>7014846.686333674</v>
-      </c>
-      <c r="D76" t="n">
-        <v>6738926.481091253</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6852539.228381963</v>
-      </c>
-      <c r="F76" t="n">
-        <v>6352294.309335003</v>
-      </c>
-      <c r="G76" t="n">
-        <v>7053782.072528337</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4488390.00097055</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4389897.233052868</v>
-      </c>
-      <c r="J76" t="n">
-        <v>6889162.602421451</v>
-      </c>
-      <c r="K76" t="n">
-        <v>10137946.16683267</v>
-      </c>
-      <c r="L76" t="n">
-        <v>12563833.55624976</v>
-      </c>
-      <c r="M76" t="n">
-        <v>12317209.12703743</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>14744120.19904156</v>
-      </c>
-      <c r="C77" t="n">
-        <v>14787409.39748713</v>
-      </c>
-      <c r="D77" t="n">
-        <v>16317468.42002895</v>
-      </c>
-      <c r="E77" t="n">
-        <v>18345628.67693554</v>
-      </c>
-      <c r="F77" t="n">
-        <v>18092375.74937669</v>
-      </c>
-      <c r="G77" t="n">
-        <v>14660091.75186298</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13226254.97542859</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14317108.0917695</v>
-      </c>
-      <c r="J77" t="n">
-        <v>13467034.90681214</v>
-      </c>
-      <c r="K77" t="n">
-        <v>13742386.99673498</v>
-      </c>
-      <c r="L77" t="n">
-        <v>12805662.65901229</v>
-      </c>
-      <c r="M77" t="n">
-        <v>15646683.13463928</v>
+        <v>2898498.037365376</v>
       </c>
     </row>
   </sheetData>
